--- a/exp_results.xlsx
+++ b/exp_results.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tezcan.b/NI_scen_clust/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A0213-9D30-D84C-854C-F459DE85ABCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3A5C63-2CF2-4540-AA99-BD5A490FB083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="4100" windowWidth="28800" windowHeight="16480" activeTab="3" xr2:uid="{99EE0712-AF69-E146-998A-7AD3A2351847}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{99EE0712-AF69-E146-998A-7AD3A2351847}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet11" sheetId="1" r:id="rId2"/>
-    <sheet name="table1" sheetId="3" r:id="rId3"/>
-    <sheet name="grid_3_3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet11" sheetId="1" r:id="rId3"/>
+    <sheet name="table1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="grid_3_3" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$245</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet11!$A$1:$L$117</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">table1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet11!$A$1:$L$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet3!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">table1!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="140">
   <si>
     <t>network_id</t>
   </si>
@@ -438,15 +441,42 @@
   <si>
     <t>+</t>
   </si>
+  <si>
+    <t>{0: [3, 5, 7, 9], 1: [3, 5, 7, 9], 2: [7, 8, 12, 15], 3: [3, 8, 10, 12]}</t>
+  </si>
+  <si>
+    <t>{0: [3, 5, 6, 7, 9], 1: [4, 8, 9, 12, 15], 2: [3, 5, 7, 8, 15], 3: [3, 7, 8, 10, 12]}</t>
+  </si>
+  <si>
+    <t>Found obj.</t>
+  </si>
+  <si>
+    <t>Scenario tree time(s)</t>
+  </si>
+  <si>
+    <t>Scenario Reduction  Budget</t>
+  </si>
+  <si>
+    <t>Scenario Reduction Total</t>
+  </si>
+  <si>
+    <t># of scenarios</t>
+  </si>
+  <si>
+    <t>Cutoff</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,6 +499,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -478,7 +522,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -486,11 +530,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,8 +570,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,9 +633,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -569,7 +673,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -675,7 +779,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -817,7 +921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -829,18 +933,18 @@
   <dimension ref="A1:K245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:K245"/>
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="60.83203125" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -878,39 +982,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>3458</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="G2">
-        <v>0.99992752075195312</v>
+        <v>0.98680877685546875</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>33.673999999999999</v>
+        <v>18.395009999999999</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K2">
-        <v>0.04</v>
+        <v>343.38</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -953,69 +1057,69 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>0.05</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>1160</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G4">
-        <v>0.99992752075195312</v>
+        <v>0.995574951171875</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4">
-        <v>33.673999999999999</v>
+        <v>18.395009999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>49.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0.1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>614</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="G5">
-        <v>0.99992752075195312</v>
+        <v>0.99765777587890625</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="I5">
-        <v>33.673999999999999</v>
+        <v>18.395009999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.04</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1128,34 +1232,34 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>1592</v>
       </c>
       <c r="F9">
-        <v>0.30199999999999999</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="G9">
-        <v>0.999542236328125</v>
+        <v>0.993927001953125</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9">
-        <v>28.218800000000002</v>
+        <v>20.101659999999999</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>102.42</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1195,37 +1299,37 @@
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>0.05</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>1160</v>
       </c>
       <c r="F11">
-        <v>0.30199999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G11">
-        <v>0.999542236328125</v>
+        <v>0.995574951171875</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11">
-        <v>28.218800000000002</v>
+        <v>28.893260000000001</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>2.0499999999999998</v>
+        <v>784.74</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1233,34 +1337,34 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E12">
-        <v>114</v>
+        <v>577</v>
       </c>
       <c r="F12">
-        <v>0.33700000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G12">
-        <v>0.99956512451171875</v>
+        <v>0.99779891967773438</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12">
-        <v>28.218800000000002</v>
+        <v>20.101659999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>2.09</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1373,34 +1477,34 @@
         <v>46</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>527</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="G16">
-        <v>0.99992752075195312</v>
+        <v>0.99798965454101562</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16">
-        <v>33.673999999999999</v>
+        <v>22.865189999999998</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.04</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1440,37 +1544,37 @@
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>0.05</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>418755</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="G18">
-        <v>0.99992752075195312</v>
+        <v>0.99999999962807085</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
       </c>
       <c r="I18">
-        <v>33.673999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="K18">
-        <v>0.04</v>
+        <v>1383.6</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1478,34 +1582,34 @@
         <v>46</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0.1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.621</v>
       </c>
       <c r="G19">
-        <v>0.99992752075195312</v>
+        <v>0.99857330322265625</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
       <c r="I19">
-        <v>33.673999999999999</v>
+        <v>22.865189999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.04</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1645,7 +1749,7 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1685,37 +1789,37 @@
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0.05</v>
       </c>
       <c r="D25">
-        <v>0.01</v>
+        <v>116.67</v>
       </c>
       <c r="E25">
-        <v>120</v>
+        <v>553901</v>
       </c>
       <c r="F25">
-        <v>0.30199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G25">
-        <v>0.999542236328125</v>
+        <v>0.99999998425718672</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25">
-        <v>28.218800000000002</v>
+        <v>266.23221999999998</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>4966.1499999999996</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1726,19 +1830,19 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0.01</v>
       </c>
       <c r="E26">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F26">
-        <v>0.33700000000000002</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="G26">
-        <v>0.99956512451171875</v>
+        <v>0.999542236328125</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -1750,7 +1854,7 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1863,34 +1967,34 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D30">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E30">
-        <v>527</v>
+        <v>114</v>
       </c>
       <c r="F30">
-        <v>0.46700000000000003</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="G30">
-        <v>0.99798965454101562</v>
+        <v>0.99956512451171875</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
       </c>
       <c r="I30">
-        <v>22.865189999999998</v>
+        <v>28.218800000000002</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>20.37</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1930,37 +2034,37 @@
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>0.05</v>
       </c>
       <c r="D32">
-        <v>0.03</v>
+        <v>6.4</v>
       </c>
       <c r="E32">
-        <v>474</v>
+        <v>62773</v>
       </c>
       <c r="F32">
-        <v>0.52</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="G32">
-        <v>0.99819183349609375</v>
+        <v>0.99976615235209465</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
       </c>
       <c r="I32">
-        <v>22.865189999999998</v>
+        <v>491.68</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="K32">
-        <v>19.690000000000001</v>
+        <v>10800.75</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -1968,34 +2072,34 @@
         <v>46</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>0.1</v>
       </c>
       <c r="D33">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E33">
-        <v>374</v>
+        <v>114</v>
       </c>
       <c r="F33">
-        <v>0.621</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="G33">
-        <v>0.99857330322265625</v>
+        <v>0.99956512451171875</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
       </c>
       <c r="I33">
-        <v>22.865189999999998</v>
+        <v>28.218800000000002</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>16.34</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2103,39 +2207,39 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1592</v>
+        <v>19</v>
       </c>
       <c r="F37">
-        <v>0.60699999999999998</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.993927001953125</v>
+        <v>0.99992752075195312</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
       </c>
       <c r="I37">
-        <v>20.101659999999999</v>
+        <v>33.673999999999999</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>102.42</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2213,34 +2317,34 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>577</v>
+        <v>19</v>
       </c>
       <c r="F40">
-        <v>0.85699999999999998</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.99779891967773438</v>
+        <v>0.99992752075195312</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
       <c r="I40">
-        <v>20.101659999999999</v>
+        <v>33.673999999999999</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>20.32</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2348,39 +2452,39 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D44">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>3458</v>
+        <v>19</v>
       </c>
       <c r="F44">
-        <v>0.72599999999999998</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.98680877685546875</v>
+        <v>0.99992752075195312</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
       </c>
       <c r="I44">
-        <v>18.395009999999999</v>
+        <v>33.673999999999999</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>343.38</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2420,37 +2524,37 @@
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>0.05</v>
       </c>
       <c r="D46">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="E46">
-        <v>1160</v>
+        <v>944</v>
       </c>
       <c r="F46">
-        <v>0.90800000000000003</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="G46">
-        <v>0.995574951171875</v>
+        <v>0.99639892578125</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
       </c>
       <c r="I46">
-        <v>18.395009999999999</v>
+        <v>29.287659999999999</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="K46">
-        <v>49.94</v>
+        <v>385.44</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2458,34 +2562,34 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0.1</v>
       </c>
       <c r="D47">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>614</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>0.95099999999999996</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.99765777587890625</v>
+        <v>0.99992752075195312</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
       </c>
       <c r="I47">
-        <v>18.395009999999999</v>
+        <v>33.673999999999999</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>18.78</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2593,39 +2697,39 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E51">
-        <v>19</v>
+        <v>3458</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="G51">
-        <v>0.99992752075195312</v>
+        <v>0.98680877685546875</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
       </c>
       <c r="I51">
-        <v>37.1661</v>
+        <v>28.893260000000001</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.37</v>
+        <v>4340.74</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2665,72 +2769,72 @@
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53">
         <v>0.05</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>13.69</v>
       </c>
       <c r="E53">
-        <v>19</v>
+        <v>88143</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G53">
-        <v>0.99992752075195312</v>
+        <v>0.99999999992171329</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
       </c>
       <c r="I53">
-        <v>37.1661</v>
+        <v>3.35</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="K53">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>158.38999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>0.1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E54">
-        <v>19</v>
+        <v>614</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="G54">
-        <v>0.99992752075195312</v>
+        <v>0.99765777587890625</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
       </c>
       <c r="I54">
-        <v>37.1661</v>
+        <v>28.97991</v>
       </c>
       <c r="J54" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.33</v>
+        <v>266.61</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2843,34 +2947,34 @@
         <v>11</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E58">
-        <v>120</v>
+        <v>1592</v>
       </c>
       <c r="F58">
-        <v>0.30199999999999999</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="G58">
-        <v>0.999542236328125</v>
+        <v>0.993927001953125</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
       <c r="I58">
-        <v>33.092649999999999</v>
+        <v>29.287659999999999</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="K58">
-        <v>10.61</v>
+        <v>999.59</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2910,37 +3014,37 @@
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>0.05</v>
       </c>
       <c r="D60">
-        <v>0.01</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="E60">
-        <v>120</v>
+        <v>102033</v>
       </c>
       <c r="F60">
-        <v>0.30199999999999999</v>
+        <v>0.379</v>
       </c>
       <c r="G60">
-        <v>0.999542236328125</v>
+        <v>0.99999999710004772</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
       </c>
       <c r="I60">
-        <v>33.092649999999999</v>
+        <v>287.02</v>
       </c>
       <c r="J60" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>12.44</v>
+        <v>231.13</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -2948,34 +3052,34 @@
         <v>11</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>0.1</v>
       </c>
       <c r="D61">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="E61">
-        <v>114</v>
+        <v>577</v>
       </c>
       <c r="F61">
-        <v>0.33700000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G61">
-        <v>0.99956512451171875</v>
+        <v>0.99779891967773438</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
       </c>
       <c r="I61">
-        <v>33.092649999999999</v>
+        <v>29.342739999999999</v>
       </c>
       <c r="J61" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="K61">
-        <v>9.82</v>
+        <v>210.66</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3155,37 +3259,37 @@
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>0.05</v>
       </c>
       <c r="D67">
-        <v>7.0000000000000007E-2</v>
+        <v>1.41</v>
       </c>
       <c r="E67">
-        <v>474</v>
+        <v>14494</v>
       </c>
       <c r="F67">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="G67">
-        <v>0.99819183349609375</v>
+        <v>0.99994600564241409</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
       </c>
       <c r="I67">
-        <v>30.629539999999999</v>
+        <v>529.67999999999995</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="K67">
-        <v>227.59</v>
+        <v>3349.82</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3328,39 +3432,39 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="E72">
-        <v>1592</v>
+        <v>120</v>
       </c>
       <c r="F72">
-        <v>0.60699999999999998</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="G72">
-        <v>0.993927001953125</v>
+        <v>0.999542236328125</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
       </c>
       <c r="I72">
-        <v>29.287659999999999</v>
+        <v>33.092649999999999</v>
       </c>
       <c r="J72" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K72">
-        <v>999.59</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3400,37 +3504,37 @@
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>0.05</v>
       </c>
       <c r="D74">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="E74">
-        <v>944</v>
+        <v>474</v>
       </c>
       <c r="F74">
-        <v>0.76700000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G74">
-        <v>0.99639892578125</v>
+        <v>0.99819183349609375</v>
       </c>
       <c r="H74" t="s">
         <v>12</v>
       </c>
       <c r="I74">
-        <v>29.287659999999999</v>
+        <v>22.865189999999998</v>
       </c>
       <c r="J74" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>385.44</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3438,34 +3542,34 @@
         <v>11</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>0.1</v>
       </c>
       <c r="D75">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E75">
-        <v>577</v>
+        <v>114</v>
       </c>
       <c r="F75">
-        <v>0.85699999999999998</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="G75">
-        <v>0.99779891967773438</v>
+        <v>0.99956512451171875</v>
       </c>
       <c r="H75" t="s">
         <v>12</v>
       </c>
       <c r="I75">
-        <v>29.342739999999999</v>
+        <v>33.092649999999999</v>
       </c>
       <c r="J75" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K75">
-        <v>210.66</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3573,39 +3677,39 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>3458</v>
+        <v>19</v>
       </c>
       <c r="F79">
-        <v>0.72599999999999998</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.98680877685546875</v>
+        <v>0.99992752075195312</v>
       </c>
       <c r="H79" t="s">
         <v>12</v>
       </c>
       <c r="I79">
-        <v>28.893260000000001</v>
+        <v>37.1661</v>
       </c>
       <c r="J79" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="K79">
-        <v>4340.74</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3648,34 +3752,34 @@
         <v>11</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>0.05</v>
       </c>
       <c r="D81">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E81">
-        <v>1160</v>
+        <v>474</v>
       </c>
       <c r="F81">
-        <v>0.90800000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="G81">
-        <v>0.995574951171875</v>
+        <v>0.99819183349609375</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
       </c>
       <c r="I81">
-        <v>28.893260000000001</v>
+        <v>30.629539999999999</v>
       </c>
       <c r="J81" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K81">
-        <v>784.74</v>
+        <v>227.59</v>
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3683,34 +3787,34 @@
         <v>11</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0.1</v>
       </c>
       <c r="D82">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>614</v>
+        <v>19</v>
       </c>
       <c r="F82">
-        <v>0.95099999999999996</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.99765777587890625</v>
+        <v>0.99992752075195312</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
       </c>
       <c r="I82">
-        <v>28.97991</v>
+        <v>37.1661</v>
       </c>
       <c r="J82" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="K82">
-        <v>266.61</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3818,39 +3922,39 @@
         <v>38.44</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>66</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0.01</v>
+        <v>174.49</v>
       </c>
       <c r="E86">
-        <v>51</v>
+        <v>1183438</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.501</v>
       </c>
       <c r="G86">
-        <v>0.9999999999999547</v>
+        <v>0.99999999894889591</v>
       </c>
       <c r="H86" t="s">
         <v>12</v>
       </c>
       <c r="I86">
-        <v>8.08</v>
+        <v>2.54</v>
       </c>
       <c r="J86" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="K86">
-        <v>0.04</v>
+        <v>10811.45</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3893,69 +3997,69 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>0.05</v>
       </c>
       <c r="D88">
-        <v>0.01</v>
+        <v>1.82</v>
       </c>
       <c r="E88">
-        <v>51</v>
+        <v>12115</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="G88">
-        <v>0.9999999999999547</v>
+        <v>0.99999999998923972</v>
       </c>
       <c r="H88" t="s">
         <v>12</v>
       </c>
       <c r="I88">
-        <v>8.08</v>
+        <v>4.68</v>
       </c>
       <c r="J88" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K88">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>66</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C89">
         <v>0.1</v>
       </c>
       <c r="D89">
-        <v>0.01</v>
+        <v>39.61</v>
       </c>
       <c r="E89">
-        <v>51</v>
+        <v>238205</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="G89">
-        <v>0.9999999999999547</v>
+        <v>0.99999999978843146</v>
       </c>
       <c r="H89" t="s">
         <v>12</v>
       </c>
       <c r="I89">
-        <v>8.08</v>
+        <v>2.54</v>
       </c>
       <c r="J89" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K89">
-        <v>0.04</v>
+        <v>531.19000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4068,34 +4172,34 @@
         <v>66</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.14000000000000001</v>
+        <v>21.01</v>
       </c>
       <c r="E93">
-        <v>1022</v>
+        <v>148874</v>
       </c>
       <c r="F93">
-        <v>0.19900000000000001</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G93">
-        <v>0.99999999999909228</v>
+        <v>0.99999999986777333</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
       </c>
       <c r="I93">
-        <v>6.32</v>
+        <v>3.35</v>
       </c>
       <c r="J93" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K93">
-        <v>1.5</v>
+        <v>288.26</v>
       </c>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4135,37 +4239,37 @@
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>0.05</v>
       </c>
       <c r="D95">
-        <v>0.12</v>
+        <v>1.94</v>
       </c>
       <c r="E95">
-        <v>994</v>
+        <v>12380</v>
       </c>
       <c r="F95">
-        <v>0.221</v>
+        <v>0.187</v>
       </c>
       <c r="G95">
-        <v>0.99999999999911715</v>
+        <v>0.99999999964813924</v>
       </c>
       <c r="H95" t="s">
         <v>12</v>
       </c>
       <c r="I95">
-        <v>6.32</v>
+        <v>314.16000000000003</v>
       </c>
       <c r="J95" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K95">
-        <v>1.44</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4173,34 +4277,34 @@
         <v>66</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96">
         <v>0.1</v>
       </c>
       <c r="D96">
-        <v>0.13</v>
+        <v>9.56</v>
       </c>
       <c r="E96">
-        <v>928</v>
+        <v>60113</v>
       </c>
       <c r="F96">
-        <v>0.27300000000000002</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="G96">
-        <v>0.99999999999917577</v>
+        <v>0.99999999994660893</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
       </c>
       <c r="I96">
-        <v>6.32</v>
+        <v>3.35</v>
       </c>
       <c r="J96" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K96">
-        <v>1.43</v>
+        <v>75.680000000000007</v>
       </c>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4380,7 +4484,7 @@
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -4389,28 +4493,28 @@
         <v>0.05</v>
       </c>
       <c r="D102">
-        <v>1.82</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E102">
-        <v>12115</v>
+        <v>2559</v>
       </c>
       <c r="F102">
-        <v>0.42</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="G102">
-        <v>0.99999999998923972</v>
+        <v>0.99999046698212624</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
       </c>
       <c r="I102">
-        <v>4.68</v>
+        <v>569.28</v>
       </c>
       <c r="J102" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="K102">
-        <v>16.989999999999998</v>
+        <v>77.849999999999994</v>
       </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4553,39 +4657,39 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>66</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>21.01</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E107">
-        <v>148874</v>
+        <v>1022</v>
       </c>
       <c r="F107">
-        <v>0.40699999999999997</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="G107">
-        <v>0.99999999986777333</v>
+        <v>0.99999999999909228</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
       </c>
       <c r="I107">
-        <v>3.35</v>
+        <v>6.32</v>
       </c>
       <c r="J107" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K107">
-        <v>288.26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4625,37 +4729,37 @@
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <v>0.05</v>
       </c>
       <c r="D109">
-        <v>13.69</v>
+        <v>0.01</v>
       </c>
       <c r="E109">
-        <v>88143</v>
+        <v>120</v>
       </c>
       <c r="F109">
-        <v>0.64900000000000002</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="G109">
-        <v>0.99999999992171329</v>
+        <v>0.999542236328125</v>
       </c>
       <c r="H109" t="s">
         <v>12</v>
       </c>
       <c r="I109">
-        <v>3.35</v>
+        <v>28.218800000000002</v>
       </c>
       <c r="J109" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K109">
-        <v>158.38999999999999</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4663,34 +4767,34 @@
         <v>66</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>0.1</v>
       </c>
       <c r="D110">
-        <v>9.56</v>
+        <v>0.13</v>
       </c>
       <c r="E110">
-        <v>60113</v>
+        <v>928</v>
       </c>
       <c r="F110">
-        <v>0.76100000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="G110">
-        <v>0.99999999994660893</v>
+        <v>0.99999999999917577</v>
       </c>
       <c r="H110" t="s">
         <v>12</v>
       </c>
       <c r="I110">
-        <v>3.35</v>
+        <v>6.32</v>
       </c>
       <c r="J110" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K110">
-        <v>75.680000000000007</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4798,39 +4902,39 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>66</v>
       </c>
       <c r="B114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>174.49</v>
+        <v>0.01</v>
       </c>
       <c r="E114">
-        <v>1183438</v>
+        <v>51</v>
       </c>
       <c r="F114">
-        <v>0.501</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0.99999999894889591</v>
+        <v>0.9999999999999547</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
       </c>
       <c r="I114">
-        <v>2.54</v>
+        <v>8.08</v>
       </c>
       <c r="J114" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K114">
-        <v>10811.45</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4870,37 +4974,37 @@
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>0.05</v>
       </c>
       <c r="D116">
-        <v>76.349999999999994</v>
+        <v>0.01</v>
       </c>
       <c r="E116">
-        <v>418755</v>
+        <v>120</v>
       </c>
       <c r="F116">
-        <v>0.82299999999999995</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="G116">
-        <v>0.99999999962807085</v>
+        <v>0.999542236328125</v>
       </c>
       <c r="H116" t="s">
         <v>12</v>
       </c>
       <c r="I116">
-        <v>2.54</v>
+        <v>28.218800000000002</v>
       </c>
       <c r="J116" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>1383.6</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -4908,34 +5012,34 @@
         <v>66</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C117">
         <v>0.1</v>
       </c>
       <c r="D117">
-        <v>39.61</v>
+        <v>0.01</v>
       </c>
       <c r="E117">
-        <v>238205</v>
+        <v>51</v>
       </c>
       <c r="F117">
-        <v>0.89900000000000002</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>0.99999999978843146</v>
+        <v>0.9999999999999547</v>
       </c>
       <c r="H117" t="s">
         <v>12</v>
       </c>
       <c r="I117">
-        <v>2.54</v>
+        <v>8.08</v>
       </c>
       <c r="J117" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K117">
-        <v>531.19000000000005</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -5043,39 +5147,39 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>82</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>162.97999999999999</v>
       </c>
       <c r="E121">
-        <v>46</v>
+        <v>1036614</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>0.252</v>
       </c>
       <c r="G121">
-        <v>0.9999999999986926</v>
+        <v>0.9999999705376581</v>
       </c>
       <c r="H121" t="s">
         <v>12</v>
       </c>
       <c r="I121">
-        <v>410.3</v>
+        <v>264.07</v>
       </c>
       <c r="J121" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K121">
-        <v>0.01</v>
+        <v>10808.37</v>
       </c>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -5115,72 +5219,72 @@
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>0.05</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E123">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="G123">
-        <v>0.9999999999986926</v>
+        <v>0.999542236328125</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
       </c>
       <c r="I123">
-        <v>410.3</v>
+        <v>33.092649999999999</v>
       </c>
       <c r="J123" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="K123">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>82</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C124">
         <v>0.1</v>
       </c>
       <c r="D124">
-        <v>0.01</v>
+        <v>64.12</v>
       </c>
       <c r="E124">
-        <v>46</v>
+        <v>331059</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="G124">
-        <v>0.9999999999986926</v>
+        <v>0.9999999905907373</v>
       </c>
       <c r="H124" t="s">
         <v>12</v>
       </c>
       <c r="I124">
-        <v>410.3</v>
+        <v>274.91314999999997</v>
       </c>
       <c r="J124" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>1663.59</v>
       </c>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -5293,34 +5397,34 @@
         <v>82</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0.12</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="E128">
-        <v>943</v>
+        <v>131853</v>
       </c>
       <c r="F128">
-        <v>0.09</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="G128">
-        <v>0.99999999997319833</v>
+        <v>0.99999999625251235</v>
       </c>
       <c r="H128" t="s">
         <v>12</v>
       </c>
       <c r="I128">
-        <v>341.66</v>
+        <v>287.02</v>
       </c>
       <c r="J128" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K128">
-        <v>0.21</v>
+        <v>322.67</v>
       </c>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -5360,7 +5464,7 @@
     </row>
     <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -5372,25 +5476,25 @@
         <v>0.12</v>
       </c>
       <c r="E130">
-        <v>943</v>
+        <v>994</v>
       </c>
       <c r="F130">
-        <v>0.09</v>
+        <v>0.221</v>
       </c>
       <c r="G130">
-        <v>0.99999999997319833</v>
+        <v>0.99999999999911715</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
       </c>
       <c r="I130">
-        <v>341.66</v>
+        <v>6.32</v>
       </c>
       <c r="J130" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K130">
-        <v>0.24</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -5398,34 +5502,34 @@
         <v>82</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C131">
         <v>0.1</v>
       </c>
       <c r="D131">
-        <v>0.12</v>
+        <v>12.82</v>
       </c>
       <c r="E131">
-        <v>917</v>
+        <v>75017</v>
       </c>
       <c r="F131">
-        <v>0.115</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="G131">
-        <v>0.99999999997393729</v>
+        <v>0.99999999786788862</v>
       </c>
       <c r="H131" t="s">
         <v>12</v>
       </c>
       <c r="I131">
-        <v>341.66</v>
+        <v>289.70600000000002</v>
       </c>
       <c r="J131" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K131">
-        <v>0.2</v>
+        <v>116.88</v>
       </c>
     </row>
     <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -5608,34 +5712,34 @@
         <v>82</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137">
         <v>0.05</v>
       </c>
       <c r="D137">
-        <v>1.94</v>
+        <v>0.12</v>
       </c>
       <c r="E137">
-        <v>12380</v>
+        <v>943</v>
       </c>
       <c r="F137">
-        <v>0.187</v>
+        <v>0.09</v>
       </c>
       <c r="G137">
-        <v>0.99999999964813924</v>
+        <v>0.99999999997319833</v>
       </c>
       <c r="H137" t="s">
         <v>12</v>
       </c>
       <c r="I137">
-        <v>314.16000000000003</v>
+        <v>341.66</v>
       </c>
       <c r="J137" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K137">
-        <v>10.83</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -5778,39 +5882,39 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>82</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>19.920000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="E142">
-        <v>131853</v>
+        <v>943</v>
       </c>
       <c r="F142">
-        <v>0.19700000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G142">
-        <v>0.99999999625251235</v>
+        <v>0.99999999997319833</v>
       </c>
       <c r="H142" t="s">
         <v>12</v>
       </c>
       <c r="I142">
-        <v>287.02</v>
+        <v>341.66</v>
       </c>
       <c r="J142" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K142">
-        <v>322.67</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -5850,37 +5954,37 @@
     </row>
     <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144">
         <v>0.05</v>
       </c>
       <c r="D144">
-        <v>16.420000000000002</v>
+        <v>0.02</v>
       </c>
       <c r="E144">
-        <v>102033</v>
+        <v>326</v>
       </c>
       <c r="F144">
-        <v>0.379</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="G144">
-        <v>0.99999999710004772</v>
+        <v>0.9999987855553627</v>
       </c>
       <c r="H144" t="s">
         <v>12</v>
       </c>
       <c r="I144">
-        <v>287.02</v>
+        <v>617.4</v>
       </c>
       <c r="J144" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K144">
-        <v>231.13</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -5888,34 +5992,34 @@
         <v>82</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145">
         <v>0.1</v>
       </c>
       <c r="D145">
-        <v>12.82</v>
+        <v>0.12</v>
       </c>
       <c r="E145">
-        <v>75017</v>
+        <v>917</v>
       </c>
       <c r="F145">
-        <v>0.54300000000000004</v>
+        <v>0.115</v>
       </c>
       <c r="G145">
-        <v>0.99999999786788862</v>
+        <v>0.99999999997393729</v>
       </c>
       <c r="H145" t="s">
         <v>12</v>
       </c>
       <c r="I145">
-        <v>289.70600000000002</v>
+        <v>341.66</v>
       </c>
       <c r="J145" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K145">
-        <v>116.88</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -6023,39 +6127,39 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>82</v>
       </c>
       <c r="B149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>162.97999999999999</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>1036614</v>
+        <v>46</v>
       </c>
       <c r="F149">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>0.9999999705376581</v>
+        <v>0.9999999999986926</v>
       </c>
       <c r="H149" t="s">
         <v>12</v>
       </c>
       <c r="I149">
-        <v>264.07</v>
+        <v>410.3</v>
       </c>
       <c r="J149" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K149">
-        <v>10808.37</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -6095,37 +6199,37 @@
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>0.05</v>
       </c>
       <c r="D151">
-        <v>116.67</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>553901</v>
+        <v>19</v>
       </c>
       <c r="F151">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>0.99999998425718672</v>
+        <v>0.99992752075195312</v>
       </c>
       <c r="H151" t="s">
         <v>12</v>
       </c>
       <c r="I151">
-        <v>266.23221999999998</v>
+        <v>33.673999999999999</v>
       </c>
       <c r="J151" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="K151">
-        <v>4966.1499999999996</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -6133,34 +6237,34 @@
         <v>82</v>
       </c>
       <c r="B152">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C152">
         <v>0.1</v>
       </c>
       <c r="D152">
-        <v>64.12</v>
+        <v>0.01</v>
       </c>
       <c r="E152">
-        <v>331059</v>
+        <v>46</v>
       </c>
       <c r="F152">
-        <v>0.76100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>0.9999999905907373</v>
+        <v>0.9999999999986926</v>
       </c>
       <c r="H152" t="s">
         <v>12</v>
       </c>
       <c r="I152">
-        <v>274.91314999999997</v>
+        <v>410.3</v>
       </c>
       <c r="J152" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K152">
-        <v>1663.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -6268,39 +6372,39 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>98</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>5.78</v>
       </c>
       <c r="E156">
-        <v>29</v>
+        <v>62773</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="G156">
-        <v>0.99999989196658134</v>
+        <v>0.99976615235209465</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
       </c>
       <c r="I156">
-        <v>669</v>
+        <v>491.68</v>
       </c>
       <c r="J156" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K156">
-        <v>0.02</v>
+        <v>10800.58</v>
       </c>
     </row>
     <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -6340,7 +6444,7 @@
     </row>
     <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -6352,60 +6456,60 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0.99999989196658134</v>
+        <v>0.99992752075195312</v>
       </c>
       <c r="H158" t="s">
         <v>12</v>
       </c>
       <c r="I158">
-        <v>669</v>
+        <v>33.673999999999999</v>
       </c>
       <c r="J158" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="K158">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>98</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C159">
         <v>0.1</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="E159">
-        <v>29</v>
+        <v>14494</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G159">
-        <v>0.99999989196658134</v>
+        <v>0.99994600564241409</v>
       </c>
       <c r="H159" t="s">
         <v>12</v>
       </c>
       <c r="I159">
-        <v>669</v>
+        <v>496.12599999999998</v>
       </c>
       <c r="J159" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K159">
-        <v>0.02</v>
+        <v>3267.4</v>
       </c>
     </row>
     <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -6518,34 +6622,34 @@
         <v>98</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>0.09</v>
+        <v>1.69</v>
       </c>
       <c r="E163">
-        <v>326</v>
+        <v>14494</v>
       </c>
       <c r="F163">
-        <v>0.19900000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G163">
-        <v>0.9999987855553627</v>
+        <v>0.99994600564241409</v>
       </c>
       <c r="H163" t="s">
         <v>12</v>
       </c>
       <c r="I163">
-        <v>617.4</v>
+        <v>529.67999999999995</v>
       </c>
       <c r="J163" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K163">
-        <v>1.1599999999999999</v>
+        <v>3506.87</v>
       </c>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -6585,37 +6689,37 @@
     </row>
     <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>0.05</v>
       </c>
       <c r="D165">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="F165">
-        <v>0.19900000000000001</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>0.9999987855553627</v>
+        <v>0.99992752075195312</v>
       </c>
       <c r="H165" t="s">
         <v>12</v>
       </c>
       <c r="I165">
-        <v>617.4</v>
+        <v>37.1661</v>
       </c>
       <c r="J165" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="K165">
-        <v>1.23</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -6623,34 +6727,34 @@
         <v>98</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C166">
         <v>0.1</v>
       </c>
       <c r="D166">
-        <v>0.03</v>
+        <v>1.54</v>
       </c>
       <c r="E166">
-        <v>326</v>
+        <v>14494</v>
       </c>
       <c r="F166">
-        <v>0.19900000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G166">
-        <v>0.9999987855553627</v>
+        <v>0.99994600564241409</v>
       </c>
       <c r="H166" t="s">
         <v>12</v>
       </c>
       <c r="I166">
-        <v>617.4</v>
+        <v>529.67999999999995</v>
       </c>
       <c r="J166" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K166">
-        <v>1.27</v>
+        <v>3332.12</v>
       </c>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -6830,37 +6934,37 @@
     </row>
     <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C172">
         <v>0.05</v>
       </c>
       <c r="D172">
-        <v>0.28999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="E172">
-        <v>2559</v>
+        <v>51</v>
       </c>
       <c r="F172">
-        <v>0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>0.99999046698212624</v>
+        <v>0.9999999999999547</v>
       </c>
       <c r="H172" t="s">
         <v>12</v>
       </c>
       <c r="I172">
-        <v>569.28</v>
+        <v>8.08</v>
       </c>
       <c r="J172" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="K172">
-        <v>77.849999999999994</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -7003,39 +7107,39 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>98</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>1.69</v>
+        <v>0.09</v>
       </c>
       <c r="E177">
-        <v>14494</v>
+        <v>326</v>
       </c>
       <c r="F177">
-        <v>0.4</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="G177">
-        <v>0.99994600564241409</v>
+        <v>0.9999987855553627</v>
       </c>
       <c r="H177" t="s">
         <v>12</v>
       </c>
       <c r="I177">
-        <v>529.67999999999995</v>
+        <v>617.4</v>
       </c>
       <c r="J177" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K177">
-        <v>3506.87</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -7075,37 +7179,37 @@
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B179">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C179">
         <v>0.05</v>
       </c>
       <c r="D179">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>14494</v>
+        <v>46</v>
       </c>
       <c r="F179">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>0.99994600564241409</v>
+        <v>0.9999999999986926</v>
       </c>
       <c r="H179" t="s">
         <v>12</v>
       </c>
       <c r="I179">
-        <v>529.67999999999995</v>
+        <v>410.3</v>
       </c>
       <c r="J179" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K179">
-        <v>3349.82</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -7113,34 +7217,34 @@
         <v>98</v>
       </c>
       <c r="B180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C180">
         <v>0.1</v>
       </c>
       <c r="D180">
-        <v>1.54</v>
+        <v>0.03</v>
       </c>
       <c r="E180">
-        <v>14494</v>
+        <v>326</v>
       </c>
       <c r="F180">
-        <v>0.4</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="G180">
-        <v>0.99994600564241409</v>
+        <v>0.9999987855553627</v>
       </c>
       <c r="H180" t="s">
         <v>12</v>
       </c>
       <c r="I180">
-        <v>529.67999999999995</v>
+        <v>617.4</v>
       </c>
       <c r="J180" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K180">
-        <v>3332.12</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -7248,39 +7352,39 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>98</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C184">
         <v>0</v>
       </c>
       <c r="D184">
-        <v>5.78</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>62773</v>
+        <v>29</v>
       </c>
       <c r="F184">
-        <v>0.48699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>0.99976615235209465</v>
+        <v>0.99999989196658134</v>
       </c>
       <c r="H184" t="s">
         <v>12</v>
       </c>
       <c r="I184">
-        <v>491.68</v>
+        <v>669</v>
       </c>
       <c r="J184" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K184">
-        <v>10800.58</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -7323,34 +7427,34 @@
         <v>98</v>
       </c>
       <c r="B186">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>0.05</v>
       </c>
       <c r="D186">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>62773</v>
+        <v>29</v>
       </c>
       <c r="F186">
-        <v>0.48699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>0.99976615235209465</v>
+        <v>0.99999989196658134</v>
       </c>
       <c r="H186" t="s">
         <v>12</v>
       </c>
       <c r="I186">
-        <v>491.68</v>
+        <v>669</v>
       </c>
       <c r="J186" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K186">
-        <v>10800.75</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -7358,34 +7462,34 @@
         <v>98</v>
       </c>
       <c r="B187">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C187">
         <v>0.1</v>
       </c>
       <c r="D187">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>14494</v>
+        <v>29</v>
       </c>
       <c r="F187">
-        <v>0.88200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>0.99994600564241409</v>
+        <v>0.99999989196658134</v>
       </c>
       <c r="H187" t="s">
         <v>12</v>
       </c>
       <c r="I187">
-        <v>496.12599999999998</v>
+        <v>669</v>
       </c>
       <c r="J187" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K187">
-        <v>3267.4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -8508,7 +8612,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>46</v>
       </c>
@@ -8648,7 +8752,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -8683,7 +8787,7 @@
         <v>119.75</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>46</v>
       </c>
@@ -8823,7 +8927,7 @@
         <v>246.65</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -8858,7 +8962,7 @@
         <v>1108.74</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -8998,7 +9102,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>66</v>
       </c>
@@ -9033,7 +9137,7 @@
         <v>256.10000000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>66</v>
       </c>
@@ -9173,7 +9277,7 @@
         <v>10.87</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>82</v>
       </c>
@@ -9208,7 +9312,7 @@
         <v>402.2</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>82</v>
       </c>
@@ -9348,7 +9452,7 @@
         <v>47.21</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>98</v>
       </c>
@@ -9383,7 +9487,7 @@
         <v>4808</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>98</v>
       </c>
@@ -9422,21 +9526,43 @@
   <autoFilter ref="A1:K245" xr:uid="{863C0858-DE63-DD46-89C7-4BF8753FEBB4}">
     <filterColumn colId="1">
       <filters>
-        <filter val="4"/>
         <filter val="5"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="0"/>
+        <filter val="0.1"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Path"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K187">
+      <sortCondition ref="A1:A245"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71D4871-F79D-5042-B14B-CCAA34703595}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:L85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FADB358-A3ED-9044-9362-55AE06AD7BA8}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L117"/>
@@ -13922,16 +14048,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266BF098-3153-2346-BCAB-ABEBBCFAEEA8}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
@@ -14689,11 +14817,696 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EBC678-434C-5D4C-81AA-F50614C03F51}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1592</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.993927001953125</v>
+      </c>
+      <c r="G2" s="8">
+        <v>20.101659999999999</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="11">
+        <v>119.75</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="15">
+        <v>102.42</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="16">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3458</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.98680877685546875</v>
+      </c>
+      <c r="G4" s="16">
+        <v>18.395009999999999</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="19">
+        <v>412.92</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="15">
+        <v>343.38</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1592</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.993927001953125</v>
+      </c>
+      <c r="G6" s="16">
+        <v>29.287659999999999</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1108.74</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="15">
+        <v>999.59</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3458</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.98680877685546875</v>
+      </c>
+      <c r="G8" s="16">
+        <v>28.893260000000001</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="19">
+        <v>5816.21</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="15">
+        <v>4340.74</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="16">
+        <v>4</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>148874</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.99999999986777299</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="19">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="K10" s="19">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="15">
+        <v>288.26</v>
+      </c>
+      <c r="K11" s="15">
+        <v>21.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="16">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1183438</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.501</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.99999999894889591</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2.54</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="19">
+        <v>8871.5400000000009</v>
+      </c>
+      <c r="K12" s="19">
+        <v>174.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="15">
+        <v>10811.45</v>
+      </c>
+      <c r="K13" s="15">
+        <v>174.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="16">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>131853</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.99999999625251235</v>
+      </c>
+      <c r="G14" s="16">
+        <v>287.02</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="19">
+        <v>402.2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="15">
+        <v>322.67</v>
+      </c>
+      <c r="K15" s="15">
+        <v>19.920000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1036614</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.252</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.9999999705376581</v>
+      </c>
+      <c r="G16" s="16">
+        <v>264.07</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="19">
+        <v>10802.71</v>
+      </c>
+      <c r="K16" s="19">
+        <v>164.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="15">
+        <v>10808.37</v>
+      </c>
+      <c r="K17" s="15">
+        <v>162.97999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="16">
+        <v>4</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>14494</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.99994600564241409</v>
+      </c>
+      <c r="G18" s="16">
+        <v>529.67999999999995</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="19">
+        <v>4808</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="15">
+        <v>3506.87</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="16">
+        <v>5</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>62773</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.99976615235209465</v>
+      </c>
+      <c r="G20" s="16">
+        <v>491.68</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="19">
+        <v>10800.18</v>
+      </c>
+      <c r="K20" s="19">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="15">
+        <v>10800.58</v>
+      </c>
+      <c r="K21" s="15">
+        <v>5.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M1" xr:uid="{53EBC678-434C-5D4C-81AA-F50614C03F51}"/>
+  <mergeCells count="80">
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79AF9C1-0084-234C-99A7-49C5D725104C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -14740,4 +15553,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{111216ff-38bd-4bdb-88af-976068a6f500}" enabled="1" method="Privileged" siteId="{a8eec281-aaa3-4dae-ac9b-9a398b9215e7}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>